--- a/medicine/Psychotrope/Falanghina/Falanghina.xlsx
+++ b/medicine/Psychotrope/Falanghina/Falanghina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La  falanghina  est un cépage italien de raisins blancs, utilisé dans l'antiquité pour produire le falernum.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle provient du sud de l’Italie. D'origine probable grecque (et utilisé par les samnites), elle est classée recommandé ou autorisé en  Campanie, dans les Abruzzes et en Sardaigne. 
 Elle est classée cépage d'appoint en DOC Aglianico del Taburno, Capri, Campi Flegrei, Capri,  Costa d'Amalfi, Falerno del Massico, Galluccio, Guardiolo, Penisola Sorrentina, Sannio, Sant'Agata de' Goti, Solopaca, Taburno, Vesuvio et Vini del Molise. En 1998, elle couvrait 833 ha.
@@ -544,7 +558,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux, vert clair à liseré carminé.
 Jeunes feuilles duveteuses, vert pâle.
@@ -576,7 +592,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de troisième époque: 30  jours après le chasselas.
 </t>
@@ -607,7 +625,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont moyennes et les baies sont de taille  moyenne. La grappe est pyramidale et ailée. Le cépage est de bonne vigueur et la production est moyenne et constante. Le cépage produit des vins blancs légèrement parfumés. Avec des raisins passerilé, on obtient de bon vins liquoreux.
 </t>
@@ -638,7 +658,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La  falanghina est connue sous les noms de biancazita, falanchina, falanghina verace, falernina, falerno verace, falerno veronese, fallanghina, folanghina et uva falerna
 </t>
